--- a/Copy of 12SDD-A3-GanttChart-Template1.xlsx
+++ b/Copy of 12SDD-A3-GanttChart-Template1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597427B6-B1A0-4AD8-80EA-D9DB709CD4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C49B62-C662-4D56-AC05-2C6962A10563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Gantt Chart</t>
   </si>
@@ -196,25 +196,22 @@
     <t>Setup Visual Studio folders</t>
   </si>
   <si>
-    <t>Settup GitHub</t>
-  </si>
-  <si>
-    <t>Initial commit</t>
+    <t>Setup Github</t>
   </si>
   <si>
     <t>App before feedback</t>
   </si>
   <si>
-    <t>Get user feedback</t>
+    <t>Make build</t>
   </si>
   <si>
-    <t>Improve app based on feedbac</t>
+    <t>Get feedback</t>
   </si>
   <si>
-    <t>Make Final Build</t>
+    <t>Improve app with feedback</t>
   </si>
   <si>
-    <t>Make initial build</t>
+    <t>Folio</t>
   </si>
 </sst>
 </file>
@@ -632,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -754,22 +751,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -780,22 +761,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -828,22 +793,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1265,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:DE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DG18" sqref="DG18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="35">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="6"/>
@@ -1487,33 +1436,33 @@
       <c r="CG2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="CH2" s="88">
+      <c r="CH2" s="76">
         <f>B3-B2</f>
-        <v>53</v>
-      </c>
-      <c r="CI2" s="88"/>
-      <c r="CJ2" s="88"/>
-      <c r="CK2" s="88"/>
-      <c r="CL2" s="88"/>
-      <c r="CM2" s="88"/>
-      <c r="CN2" s="88"/>
-      <c r="CO2" s="88"/>
-      <c r="CP2" s="88"/>
-      <c r="CQ2" s="88"/>
-      <c r="CR2" s="88"/>
-      <c r="CS2" s="88"/>
-      <c r="CT2" s="88"/>
-      <c r="CU2" s="88"/>
-      <c r="CV2" s="88"/>
-      <c r="CW2" s="88"/>
-      <c r="CX2" s="88"/>
-      <c r="CY2" s="88"/>
-      <c r="CZ2" s="88"/>
-      <c r="DA2" s="88"/>
-      <c r="DB2" s="88"/>
-      <c r="DC2" s="88"/>
-      <c r="DD2" s="88"/>
-      <c r="DE2" s="89"/>
+        <v>68</v>
+      </c>
+      <c r="CI2" s="76"/>
+      <c r="CJ2" s="76"/>
+      <c r="CK2" s="76"/>
+      <c r="CL2" s="76"/>
+      <c r="CM2" s="76"/>
+      <c r="CN2" s="76"/>
+      <c r="CO2" s="76"/>
+      <c r="CP2" s="76"/>
+      <c r="CQ2" s="76"/>
+      <c r="CR2" s="76"/>
+      <c r="CS2" s="76"/>
+      <c r="CT2" s="76"/>
+      <c r="CU2" s="76"/>
+      <c r="CV2" s="76"/>
+      <c r="CW2" s="76"/>
+      <c r="CX2" s="76"/>
+      <c r="CY2" s="76"/>
+      <c r="CZ2" s="76"/>
+      <c r="DA2" s="76"/>
+      <c r="DB2" s="76"/>
+      <c r="DC2" s="76"/>
+      <c r="DD2" s="76"/>
+      <c r="DE2" s="77"/>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1967,174 +1916,174 @@
       </c>
       <c r="F5" s="13" t="str">
         <f>IF(DAY(B2)&lt;10,"0"&amp;DAY(B2),DAY(B2))&amp;"/"&amp;IF(MONTH(B2)&lt;10,"0"&amp;MONTH(B2),MONTH(B2))</f>
-        <v>30/04</v>
+        <v>15/04</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="90">
+      <c r="I5" s="78">
         <f>$B$2+I4*$CH$2/100</f>
-        <v>44316</v>
-      </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90">
+        <v>44301</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78">
         <f>$B$2+S4*$CH$2/100</f>
-        <v>44321.3</v>
-      </c>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90">
+        <v>44307.8</v>
+      </c>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78">
         <f>$B$2+AC4*$CH$2/100</f>
-        <v>44326.6</v>
-      </c>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90">
+        <v>44314.6</v>
+      </c>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78">
         <f>$B$2+AM4*$CH$2/100</f>
-        <v>44331.9</v>
-      </c>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90">
+        <v>44321.4</v>
+      </c>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78">
         <f>$B$2+AW4*$CH$2/100</f>
-        <v>44337.2</v>
-      </c>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90">
+        <v>44328.2</v>
+      </c>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="78"/>
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="78"/>
+      <c r="BD5" s="78"/>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="78">
         <f>$B$2+BG4*$CH$2/100</f>
-        <v>44342.5</v>
-      </c>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="90"/>
-      <c r="BK5" s="90"/>
-      <c r="BL5" s="90"/>
-      <c r="BM5" s="90"/>
-      <c r="BN5" s="90"/>
-      <c r="BO5" s="90"/>
-      <c r="BP5" s="90"/>
-      <c r="BQ5" s="90">
+        <v>44335</v>
+      </c>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="78"/>
+      <c r="BJ5" s="78"/>
+      <c r="BK5" s="78"/>
+      <c r="BL5" s="78"/>
+      <c r="BM5" s="78"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
+      <c r="BQ5" s="78">
         <f>$B$2+BQ4*$CH$2/100</f>
-        <v>44347.8</v>
-      </c>
-      <c r="BR5" s="90"/>
-      <c r="BS5" s="90"/>
-      <c r="BT5" s="90"/>
-      <c r="BU5" s="90"/>
-      <c r="BV5" s="90"/>
-      <c r="BW5" s="90"/>
-      <c r="BX5" s="90"/>
-      <c r="BY5" s="90"/>
-      <c r="BZ5" s="90"/>
-      <c r="CA5" s="90">
+        <v>44341.8</v>
+      </c>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="78"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="78"/>
+      <c r="BW5" s="78"/>
+      <c r="BX5" s="78"/>
+      <c r="BY5" s="78"/>
+      <c r="BZ5" s="78"/>
+      <c r="CA5" s="78">
         <f>$B$2+CA4*$CH$2/100</f>
-        <v>44353.1</v>
-      </c>
-      <c r="CB5" s="90"/>
-      <c r="CC5" s="90"/>
-      <c r="CD5" s="90"/>
-      <c r="CE5" s="90"/>
-      <c r="CF5" s="90"/>
-      <c r="CG5" s="90"/>
-      <c r="CH5" s="90"/>
-      <c r="CI5" s="90"/>
-      <c r="CJ5" s="90"/>
-      <c r="CK5" s="90">
+        <v>44348.6</v>
+      </c>
+      <c r="CB5" s="78"/>
+      <c r="CC5" s="78"/>
+      <c r="CD5" s="78"/>
+      <c r="CE5" s="78"/>
+      <c r="CF5" s="78"/>
+      <c r="CG5" s="78"/>
+      <c r="CH5" s="78"/>
+      <c r="CI5" s="78"/>
+      <c r="CJ5" s="78"/>
+      <c r="CK5" s="78">
         <f>$B$2+CK4*$CH$2/100</f>
-        <v>44358.400000000001</v>
-      </c>
-      <c r="CL5" s="90"/>
-      <c r="CM5" s="90"/>
-      <c r="CN5" s="90"/>
-      <c r="CO5" s="90"/>
-      <c r="CP5" s="90"/>
-      <c r="CQ5" s="90"/>
-      <c r="CR5" s="90"/>
-      <c r="CS5" s="90"/>
-      <c r="CT5" s="90"/>
-      <c r="CU5" s="91">
+        <v>44355.4</v>
+      </c>
+      <c r="CL5" s="78"/>
+      <c r="CM5" s="78"/>
+      <c r="CN5" s="78"/>
+      <c r="CO5" s="78"/>
+      <c r="CP5" s="78"/>
+      <c r="CQ5" s="78"/>
+      <c r="CR5" s="78"/>
+      <c r="CS5" s="78"/>
+      <c r="CT5" s="78"/>
+      <c r="CU5" s="79">
         <f>$B$2+DE4*$CH$2/100</f>
         <v>44369</v>
       </c>
-      <c r="CV5" s="91"/>
-      <c r="CW5" s="91"/>
-      <c r="CX5" s="91"/>
-      <c r="CY5" s="91"/>
-      <c r="CZ5" s="91"/>
-      <c r="DA5" s="91"/>
-      <c r="DB5" s="91"/>
-      <c r="DC5" s="91"/>
-      <c r="DD5" s="91"/>
-      <c r="DE5" s="91"/>
+      <c r="CV5" s="79"/>
+      <c r="CW5" s="79"/>
+      <c r="CX5" s="79"/>
+      <c r="CY5" s="79"/>
+      <c r="CZ5" s="79"/>
+      <c r="DA5" s="79"/>
+      <c r="DB5" s="79"/>
+      <c r="DC5" s="79"/>
+      <c r="DD5" s="79"/>
+      <c r="DE5" s="79"/>
     </row>
     <row r="6" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="38">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="C6" s="38">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="D6" s="40">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="E6" s="40">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="F6" s="9">
         <f>INT((B6-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G6" s="9">
         <f>INT((C6-$B$2+1)/$CH$2*100)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="27">
         <f t="shared" ref="I6:BT6" si="0">IF($F6&lt;=I$4,IF($G6&gt;=I$4,1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="28">
         <f t="shared" si="0"/>
@@ -2194,11 +2143,11 @@
       </c>
       <c r="Y6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" si="0"/>
@@ -2541,16 +2490,16 @@
       <c r="E7" s="40"/>
       <c r="F7" s="9">
         <f>INT((D6-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G7" s="9">
         <f>INT((E6-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="27">
         <f t="shared" ref="I7:BT7" si="2">IF($F7&lt;=I$4,IF($G7&gt;=I$4,-1,0),0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" si="2"/>
@@ -2614,7 +2563,7 @@
       </c>
       <c r="Y7" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z7" s="28">
         <f t="shared" si="2"/>
@@ -2957,34 +2906,34 @@
       <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="43">
-        <v>44316</v>
-      </c>
-      <c r="C8" s="43">
-        <v>44316</v>
-      </c>
-      <c r="D8" s="45">
-        <v>44316</v>
-      </c>
-      <c r="E8" s="45">
-        <v>44316</v>
+      <c r="B8" s="38">
+        <v>44312</v>
+      </c>
+      <c r="C8" s="38">
+        <v>44312</v>
+      </c>
+      <c r="D8" s="40">
+        <v>44312</v>
+      </c>
+      <c r="E8" s="40">
+        <v>44312</v>
       </c>
       <c r="F8" s="9">
         <f>INT((B8-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G8" s="9">
         <f>INT((C8-$B$2+1)/$CH$2*100)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="27">
         <f t="shared" ref="I8:BT8" si="4">IF($F8&lt;=I$4,IF($G8&gt;=I$4,1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="28">
         <f t="shared" si="4"/>
@@ -3044,11 +2993,11 @@
       </c>
       <c r="Y8" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="28">
         <f t="shared" si="4"/>
@@ -3385,22 +3334,22 @@
     </row>
     <row r="9" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="9">
         <f>INT((D8-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G9" s="9">
         <f>INT((E8-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="27">
         <f t="shared" ref="I9:BT9" si="6">IF($F9&lt;=I$4,IF($G9&gt;=I$4,-1,0),0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="28">
         <f t="shared" si="6"/>
@@ -3464,7 +3413,7 @@
       </c>
       <c r="Y9" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z9" s="28">
         <f t="shared" si="6"/>
@@ -3804,45 +3753,45 @@
       </c>
     </row>
     <row r="10" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="38">
+        <v>44314</v>
+      </c>
+      <c r="C10" s="38">
+        <v>44345</v>
+      </c>
+      <c r="D10" s="40">
         <v>44316</v>
       </c>
-      <c r="C10" s="43">
-        <v>44317</v>
-      </c>
-      <c r="D10" s="45">
-        <v>44316</v>
-      </c>
-      <c r="E10" s="45">
-        <v>44316</v>
+      <c r="E10" s="40">
+        <v>44344</v>
       </c>
       <c r="F10" s="9">
         <f>INT((B10-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G10" s="9">
         <f>INT((C10-$B$2+1)/$CH$2*100)</f>
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="27">
         <f t="shared" ref="I10:BT10" si="8">IF($F10&lt;=I$4,IF($G10&gt;=I$4,1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" si="8"/>
@@ -3906,195 +3855,195 @@
       </c>
       <c r="AB10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="28">
         <f t="shared" ref="BU10:DE10" si="9">IF($F10&lt;=BU$4,IF($G10&gt;=BU$4,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV10" s="28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="28">
         <f t="shared" si="9"/>
@@ -4234,23 +4183,23 @@
       </c>
     </row>
     <row r="11" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="9">
         <f>INT((D10-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G11" s="9">
         <f>INT((E10-$B$2)/$CH$2*100)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="27">
         <f t="shared" ref="I11:BT11" si="10">IF($F11&lt;=I$4,IF($G11&gt;=I$4,-1,0),0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="10"/>
@@ -4338,171 +4287,171 @@
       </c>
       <c r="AE11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AU11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AZ11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BD11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BE11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BF11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BI11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BJ11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BK11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BL11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BM11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BN11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BO11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BQ11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BR11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BS11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BT11" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BU11" s="28">
         <f t="shared" ref="BU11:DE11" si="11">IF($F11&lt;=BU$4,IF($G11&gt;=BU$4,-1,0),0)</f>
@@ -4654,28 +4603,28 @@
       </c>
     </row>
     <row r="12" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="50">
-        <v>44318</v>
-      </c>
-      <c r="C12" s="50">
-        <v>44346</v>
-      </c>
-      <c r="D12" s="52">
-        <v>44318</v>
-      </c>
-      <c r="E12" s="52">
+      <c r="B12" s="38">
+        <v>44345</v>
+      </c>
+      <c r="C12" s="38">
+        <v>44345</v>
+      </c>
+      <c r="D12" s="40">
+        <v>44344</v>
+      </c>
+      <c r="E12" s="40">
         <v>44344</v>
       </c>
       <c r="F12" s="9">
         <f>INT((B12-$B$2)/$CH$2*100)</f>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="G12" s="9">
         <f>INT((C12-$B$2+1)/$CH$2*100)</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="27">
@@ -4692,227 +4641,227 @@
       </c>
       <c r="L12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="28">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="28">
         <f t="shared" si="12"/>
@@ -4936,15 +4885,15 @@
       </c>
       <c r="BU12" s="28">
         <f t="shared" ref="BU12:DE12" si="13">IF($F12&lt;=BU$4,IF($G12&gt;=BU$4,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV12" s="28">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12" s="28">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12" s="28">
         <f t="shared" si="13"/>
@@ -5084,18 +5033,18 @@
       </c>
     </row>
     <row r="13" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="9">
         <f>INT((D12-$B$2)/$CH$2*100)</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="G13" s="9">
         <f>INT((E12-$B$2)/$CH$2*100)</f>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="27">
@@ -5112,203 +5061,203 @@
       </c>
       <c r="L13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="28">
         <f t="shared" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="28">
         <f t="shared" si="14"/>
@@ -5352,7 +5301,7 @@
       </c>
       <c r="BT13" s="28">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BU13" s="28">
         <f t="shared" ref="BU13:DE13" si="15">IF($F13&lt;=BU$4,IF($G13&gt;=BU$4,-1,0),0)</f>
@@ -5504,28 +5453,28 @@
       </c>
     </row>
     <row r="14" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="62">
+      <c r="A14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="38">
         <v>44346</v>
       </c>
-      <c r="C14" s="62">
-        <v>44346</v>
-      </c>
-      <c r="D14" s="64">
+      <c r="C14" s="38">
+        <v>44351</v>
+      </c>
+      <c r="D14" s="40">
         <v>44344</v>
       </c>
-      <c r="E14" s="64">
-        <v>44344</v>
+      <c r="E14" s="40">
+        <v>44363</v>
       </c>
       <c r="F14" s="9">
-        <f>INT((B16-$B$2)/$CH$2*100)</f>
-        <v>58</v>
+        <f>INT((B14-$B$2)/$CH$2*100)</f>
+        <v>66</v>
       </c>
       <c r="G14" s="9">
-        <f>INT((C16-$B$2+1)/$CH$2*100)</f>
-        <v>67</v>
+        <f>INT((C14-$B$2+1)/$CH$2*100)</f>
+        <v>75</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="27">
@@ -5762,35 +5711,35 @@
       </c>
       <c r="BO14" s="28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="28">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="28">
         <f t="shared" ref="BU14:DE14" si="17">IF($F14&lt;=BU$4,IF($G14&gt;=BU$4,1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV14" s="28">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="28">
         <f t="shared" si="17"/>
@@ -5802,35 +5751,35 @@
       </c>
       <c r="BY14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF14" s="28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" s="28">
         <f t="shared" si="17"/>
@@ -5934,448 +5883,448 @@
       </c>
     </row>
     <row r="15" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="9">
-        <f>INT((D16-$B$2)/$CH$2*100)</f>
-        <v>52</v>
+        <f>INT((D14-$B$2)/$CH$2*100)</f>
+        <v>63</v>
       </c>
       <c r="G15" s="9">
-        <f>INT((E16-$B$2)/$CH$2*100)</f>
-        <v>86</v>
+        <f>INT((E14-$B$2)/$CH$2*100)</f>
+        <v>91</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="27">
-        <f>IF($F14&lt;=I$4,IF($G14&gt;=I$4,-1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
-        <f t="shared" ref="J15:BU15" si="18">IF($F14&lt;=J$4,IF($G14&gt;=J$4,-1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="27">
+        <f t="shared" ref="I15:BT15" si="18">IF($F15&lt;=I$4,IF($G15&gt;=I$4,-1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L15" s="27">
+      <c r="K15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M15" s="27">
+      <c r="L15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N15" s="27">
+      <c r="M15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O15" s="27">
+      <c r="N15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P15" s="27">
+      <c r="O15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="P15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R15" s="27">
+      <c r="Q15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S15" s="27">
+      <c r="R15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T15" s="27">
+      <c r="S15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U15" s="27">
+      <c r="T15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V15" s="27">
+      <c r="U15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W15" s="27">
+      <c r="V15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X15" s="27">
+      <c r="W15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="X15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Y15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="Z15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AA15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="27">
+      <c r="AB15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AC15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AD15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="27">
+      <c r="AE15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="27">
+      <c r="AF15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="27">
+      <c r="AG15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="27">
+      <c r="AH15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="27">
+      <c r="AI15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="27">
+      <c r="AJ15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="27">
+      <c r="AK15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="27">
+      <c r="AL15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="27">
+      <c r="AM15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="27">
+      <c r="AN15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="27">
+      <c r="AO15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="27">
+      <c r="AP15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="27">
+      <c r="AQ15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="27">
+      <c r="AR15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="27">
+      <c r="AS15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AU15" s="27">
+      <c r="AT15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AV15" s="27">
+      <c r="AU15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="27">
+      <c r="AV15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AX15" s="27">
+      <c r="AW15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AY15" s="27">
+      <c r="AX15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AZ15" s="27">
+      <c r="AY15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BA15" s="27">
+      <c r="AZ15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BB15" s="27">
+      <c r="BA15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BC15" s="27">
+      <c r="BB15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BD15" s="27">
+      <c r="BC15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BE15" s="27">
+      <c r="BD15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BF15" s="27">
+      <c r="BE15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BG15" s="27">
+      <c r="BF15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BH15" s="27">
+      <c r="BG15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BI15" s="27">
+      <c r="BH15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BJ15" s="27">
+      <c r="BI15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BK15" s="27">
+      <c r="BJ15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BL15" s="27">
+      <c r="BK15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BM15" s="27">
+      <c r="BL15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BN15" s="27">
+      <c r="BM15" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BO15" s="27">
+      <c r="BN15" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BO15" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="28">
         <f t="shared" si="18"/>
         <v>-1</v>
       </c>
-      <c r="BP15" s="27">
-        <f t="shared" si="18"/>
+      <c r="BU15" s="28">
+        <f t="shared" ref="BU15:DE15" si="19">IF($F15&lt;=BU$4,IF($G15&gt;=BU$4,-1,0),0)</f>
         <v>-1</v>
       </c>
-      <c r="BQ15" s="27">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="BR15" s="27">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="BS15" s="27">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="BT15" s="27">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="BU15" s="27">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="BV15" s="27">
-        <f t="shared" ref="BV15:DE15" si="19">IF($F14&lt;=BV$4,IF($G14&gt;=BV$4,-1,0),0)</f>
-        <v>-1</v>
-      </c>
-      <c r="BW15" s="27">
+      <c r="BV15" s="28">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="BX15" s="27">
+      <c r="BW15" s="28">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="BY15" s="27">
+      <c r="BX15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="BY15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CA15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="BZ15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CB15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CA15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CC15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CB15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CD15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CC15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CE15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CD15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CF15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CE15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CG15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CF15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CH15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CG15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CI15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CH15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CI15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CK15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CJ15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CL15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CK15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CM15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CL15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CN15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CM15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CO15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CN15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CP15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CO15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CP15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CR15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CQ15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CS15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CR15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CT15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CS15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CU15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CT15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CV15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CU15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CW15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CV15" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="CX15" s="27">
+        <v>-1</v>
+      </c>
+      <c r="CW15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="CY15" s="27">
+      <c r="CX15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="CZ15" s="27">
+      <c r="CY15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DA15" s="27">
+      <c r="CZ15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DB15" s="27">
+      <c r="DA15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DC15" s="27">
+      <c r="DB15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DD15" s="27">
+      <c r="DC15" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="DE15" s="27">
+      <c r="DD15" s="28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="DE15" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="50">
-        <v>44347</v>
-      </c>
-      <c r="C16" s="50">
+      <c r="A16" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38">
         <v>44351</v>
       </c>
-      <c r="D16" s="52">
-        <v>44344</v>
-      </c>
-      <c r="E16" s="52">
-        <v>44362</v>
+      <c r="C16" s="38">
+        <v>44357</v>
+      </c>
+      <c r="D16" s="40">
+        <v>44363</v>
+      </c>
+      <c r="E16" s="40">
+        <v>44366</v>
       </c>
       <c r="F16" s="9">
-        <f>INT((B18-$B$2)/$CH$2*100)</f>
-        <v>66</v>
+        <f>INT((B16-$B$2)/$CH$2*100)</f>
+        <v>73</v>
       </c>
       <c r="G16" s="9">
-        <f>INT((C18-$B$2+1)/$CH$2*100)</f>
-        <v>88</v>
+        <f>INT((C16-$B$2+1)/$CH$2*100)</f>
+        <v>83</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="27">
@@ -6644,31 +6593,31 @@
       </c>
       <c r="BW16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD16" s="28">
         <f t="shared" si="21"/>
@@ -6716,23 +6665,23 @@
       </c>
       <c r="CO16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS16" s="28">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT16" s="28">
         <f t="shared" si="21"/>
@@ -6784,18 +6733,18 @@
       </c>
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="9">
-        <f>INT((D18-$B$2)/$CH$2*100)</f>
-        <v>88</v>
+        <f>INT((D16-$B$2)/$CH$2*100)</f>
+        <v>91</v>
       </c>
       <c r="G17" s="9">
-        <f>INT((E18-$B$2)/$CH$2*100)</f>
-        <v>94</v>
+        <f>INT((E16-$B$2)/$CH$2*100)</f>
+        <v>95</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="27">
@@ -7152,15 +7101,15 @@
       </c>
       <c r="CS17" s="28">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CT17" s="28">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CU17" s="28">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CV17" s="28">
         <f t="shared" si="23"/>
@@ -7180,7 +7129,7 @@
       </c>
       <c r="CZ17" s="28">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DA17" s="28">
         <f t="shared" si="23"/>
@@ -7204,28 +7153,28 @@
       </c>
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="56">
-        <v>44351</v>
-      </c>
-      <c r="C18" s="56">
-        <v>44362</v>
-      </c>
-      <c r="D18" s="58">
-        <v>44363</v>
-      </c>
-      <c r="E18" s="58">
+      <c r="A18" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="38">
         <v>44366</v>
       </c>
+      <c r="C18" s="38">
+        <v>44366</v>
+      </c>
+      <c r="D18" s="40">
+        <v>44366</v>
+      </c>
+      <c r="E18" s="40">
+        <v>44366</v>
+      </c>
       <c r="F18" s="9">
-        <f>INT((B20-$B$2)/$CH$2*100)</f>
-        <v>86</v>
+        <f>INT((B18-$B$2)/$CH$2*100)</f>
+        <v>95</v>
       </c>
       <c r="G18" s="9">
-        <f>INT((C20-$B$2+1)/$CH$2*100)</f>
-        <v>88</v>
+        <f>INT((C18-$B$2+1)/$CH$2*100)</f>
+        <v>97</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="27">
@@ -7574,15 +7523,15 @@
       </c>
       <c r="CQ18" s="28">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR18" s="28">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS18" s="28">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT18" s="28">
         <f t="shared" si="25"/>
@@ -7610,15 +7559,15 @@
       </c>
       <c r="CZ18" s="28">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA18" s="28">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB18" s="28">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC18" s="28">
         <f t="shared" si="25"/>
@@ -7634,18 +7583,18 @@
       </c>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="9">
-        <f>INT((D20-$B$2)/$CH$2*100)</f>
-        <v>94</v>
+        <f>INT((D18-$B$2)/$CH$2*100)</f>
+        <v>95</v>
       </c>
       <c r="G19" s="9">
-        <f>INT((E20-$B$2)/$CH$2*100)</f>
-        <v>94</v>
+        <f>INT((E18-$B$2)/$CH$2*100)</f>
+        <v>95</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="27">
@@ -8026,11 +7975,11 @@
       </c>
       <c r="CY19" s="28">
         <f t="shared" si="27"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CZ19" s="28">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DA19" s="28">
         <f t="shared" si="27"/>
@@ -8054,868 +8003,868 @@
       </c>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="62">
-        <v>44362</v>
-      </c>
-      <c r="C20" s="62">
-        <v>44362</v>
-      </c>
-      <c r="D20" s="64">
+      <c r="B20" s="56">
         <v>44366</v>
       </c>
-      <c r="E20" s="64">
+      <c r="C20" s="56">
+        <v>44369</v>
+      </c>
+      <c r="D20" s="58">
         <v>44366</v>
       </c>
-      <c r="F20" s="9" t="e">
-        <f>INT((#REF!-$B$2)/$CH$2*100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="9" t="e">
-        <f>INT((#REF!-$B$2+1)/$CH$2*100)</f>
-        <v>#REF!</v>
+      <c r="E20" s="58">
+        <v>44369</v>
+      </c>
+      <c r="F20" s="9">
+        <f>INT((B20-$B$2)/$CH$2*100)</f>
+        <v>95</v>
+      </c>
+      <c r="G20" s="9">
+        <f>INT((C20-$B$2+1)/$CH$2*100)</f>
+        <v>101</v>
       </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="27" t="e">
+      <c r="I20" s="27">
         <f t="shared" ref="I20:BT20" si="28">IF($F20&lt;=I$4,IF($G20&gt;=I$4,1,0),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="K20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="L20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="M20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="N20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="O20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="P20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="S20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="T20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="V20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="W20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="X20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AI20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AL20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AM20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AO20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AR20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AS20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AT20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AV20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AW20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AX20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AY20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BA20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BB20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BC20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BD20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BE20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BF20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BG20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BH20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BI20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BK20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BL20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BM20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BN20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BO20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BP20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BR20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BS20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BT20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="28">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BU20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="28">
         <f t="shared" ref="BU20:DE20" si="29">IF($F20&lt;=BU$4,IF($G20&gt;=BU$4,1,0),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BV20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BW20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BX20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BY20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CA20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CB20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CC20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CC20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CD20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CE20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CF20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CG20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CH20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CI20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CJ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CK20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CK20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CL20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CL20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CM20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CM20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CN20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CO20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CP20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CQ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CR20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CR20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CS20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CS20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CT20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CT20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CU20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CU20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CV20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CV20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CW20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CW20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CX20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CX20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CY20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CY20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CZ20" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CZ20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DA20" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DA20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DB20" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DB20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DC20" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DC20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DD20" s="28" t="e">
+        <v>1</v>
+      </c>
+      <c r="DD20" s="28">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DE20" s="29" t="e">
+        <v>1</v>
+      </c>
+      <c r="DE20" s="29">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="9" t="e">
-        <f>INT((#REF!-$B$2)/$CH$2*100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="9" t="e">
-        <f>INT((#REF!-$B$2)/$CH$2*100)</f>
-        <v>#REF!</v>
+      <c r="A21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="9">
+        <f>INT((D20-$B$2)/$CH$2*100)</f>
+        <v>95</v>
+      </c>
+      <c r="G21" s="9">
+        <f>INT((E20-$B$2)/$CH$2*100)</f>
+        <v>100</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="27" t="e">
+      <c r="I21" s="27">
         <f t="shared" ref="I21:BT21" si="30">IF($F21&lt;=I$4,IF($G21&gt;=I$4,-1,0),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="K21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="N21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="O21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="P21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="S21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="T21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="U21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="V21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="W21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="X21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AI21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AL21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AM21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AO21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AR21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AS21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AT21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AU21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AV21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AW21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AX21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AY21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BA21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BB21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BC21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BD21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BE21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BF21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BG21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BH21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BI21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BK21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BL21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BM21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BN21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BO21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BP21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BQ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BR21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BS21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BT21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="28">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BU21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="28">
         <f t="shared" ref="BU21:DE21" si="31">IF($F21&lt;=BU$4,IF($G21&gt;=BU$4,-1,0),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BV21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BW21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BX21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BY21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BZ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CA21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CB21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CC21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CD21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CE21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CF21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CG21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CH21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CI21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CJ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CK21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CL21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CL21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CM21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CN21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CO21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CP21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CQ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CR21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CS21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CS21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CT21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CT21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CU21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CV21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CV21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CW21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CW21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CX21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CX21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CY21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CY21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="CZ21" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="CZ21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DA21" s="28" t="e">
+        <v>-1</v>
+      </c>
+      <c r="DA21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DB21" s="28" t="e">
+        <v>-1</v>
+      </c>
+      <c r="DB21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DC21" s="28" t="e">
+        <v>-1</v>
+      </c>
+      <c r="DC21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DD21" s="28" t="e">
+        <v>-1</v>
+      </c>
+      <c r="DD21" s="28">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
-      </c>
-      <c r="DE21" s="29" t="e">
+        <v>-1</v>
+      </c>
+      <c r="DE21" s="29">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="9">
         <f>INT((B22-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G22" s="9">
         <f>INT((C22-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="27">
@@ -9324,18 +9273,18 @@
       </c>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="9">
         <f>INT((D22-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G23" s="9">
         <f>INT((E22-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="27">
@@ -9744,18 +9693,18 @@
       </c>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="9">
         <f>INT((B24-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G24" s="9">
         <f>INT((C24-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="27">
@@ -10164,18 +10113,18 @@
       </c>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="9">
         <f>INT((D24-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G25" s="9">
         <f>INT((E24-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="27">
@@ -10584,18 +10533,18 @@
       </c>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="9">
         <f>INT((B26-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G26" s="9">
         <f>INT((C26-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="27">
@@ -11004,18 +10953,18 @@
       </c>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="9">
         <f>INT((D26-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G27" s="9">
         <f>INT((E26-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="27">
@@ -11424,18 +11373,18 @@
       </c>
     </row>
     <row r="28" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="9">
         <f>INT((B28-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G28" s="9">
         <f>INT((C28-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="27">
@@ -11844,18 +11793,18 @@
       </c>
     </row>
     <row r="29" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="9">
         <f>INT((D28-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G29" s="9">
         <f>INT((E28-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="27">
@@ -12264,18 +12213,18 @@
       </c>
     </row>
     <row r="30" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="9">
         <f>INT((B30-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G30" s="9">
         <f>INT((C30-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="27">
@@ -12684,18 +12633,18 @@
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="9">
         <f>INT((D30-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G31" s="9">
         <f>INT((E30-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="27">
@@ -13104,18 +13053,18 @@
       </c>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="9">
         <f>INT((B32-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G32" s="9">
         <f>INT((C32-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="27">
@@ -13524,18 +13473,18 @@
       </c>
     </row>
     <row r="33" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="9">
         <f>INT((D32-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G33" s="9">
         <f>INT((E32-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="27">
@@ -13944,18 +13893,18 @@
       </c>
     </row>
     <row r="34" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="9">
         <f>INT((B34-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G34" s="9">
         <f>INT((C34-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="27">
@@ -14364,18 +14313,18 @@
       </c>
     </row>
     <row r="35" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="9">
         <f>INT((D34-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G35" s="9">
         <f>INT((E34-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="27">
@@ -14784,18 +14733,18 @@
       </c>
     </row>
     <row r="36" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="9">
         <f>INT((B36-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G36" s="9">
         <f>INT((C36-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="27">
@@ -15204,18 +15153,18 @@
       </c>
     </row>
     <row r="37" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="9">
         <f>INT((D36-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G37" s="9">
         <f>INT((E36-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="27">
@@ -15624,18 +15573,18 @@
       </c>
     </row>
     <row r="38" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="9">
         <f>INT((B38-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G38" s="9">
         <f>INT((C38-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="27">
@@ -16044,18 +15993,18 @@
       </c>
     </row>
     <row r="39" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="9">
         <f>INT((D38-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G39" s="9">
         <f>INT((E38-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="27">
@@ -16464,18 +16413,18 @@
       </c>
     </row>
     <row r="40" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="9">
         <f>INT((B40-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G40" s="9">
         <f>INT((C40-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="27">
@@ -16884,18 +16833,18 @@
       </c>
     </row>
     <row r="41" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="9">
         <f>INT((D40-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G41" s="9">
         <f>INT((E40-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="27">
@@ -17304,18 +17253,18 @@
       </c>
     </row>
     <row r="42" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="9">
         <f>INT((B42-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G42" s="9">
         <f>INT((C42-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="27">
@@ -17724,18 +17673,18 @@
       </c>
     </row>
     <row r="43" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="9">
         <f>INT((D42-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G43" s="9">
         <f>INT((E42-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="27">
@@ -18144,18 +18093,18 @@
       </c>
     </row>
     <row r="44" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="9">
         <f>INT((B44-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G44" s="9">
         <f>INT((C44-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="27">
@@ -18564,18 +18513,18 @@
       </c>
     </row>
     <row r="45" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="9">
         <f>INT((D44-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G45" s="9">
         <f>INT((E44-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="27">
@@ -18984,18 +18933,18 @@
       </c>
     </row>
     <row r="46" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="9">
         <f>INT((B46-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G46" s="9">
         <f>INT((C46-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="27">
@@ -19404,18 +19353,18 @@
       </c>
     </row>
     <row r="47" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="9">
         <f>INT((D46-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G47" s="9">
         <f>INT((E46-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="27">
@@ -19824,18 +19773,18 @@
       </c>
     </row>
     <row r="48" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="9">
         <f>INT((B48-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G48" s="9">
         <f>INT((C48-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="27">
@@ -20244,18 +20193,18 @@
       </c>
     </row>
     <row r="49" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="9">
         <f>INT((D48-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G49" s="9">
         <f>INT((E48-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="27">
@@ -20664,18 +20613,18 @@
       </c>
     </row>
     <row r="50" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="9">
         <f>INT((B50-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G50" s="9">
         <f>INT((C50-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="27">
@@ -21084,18 +21033,18 @@
       </c>
     </row>
     <row r="51" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="9">
         <f>INT((D50-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G51" s="9">
         <f>INT((E50-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H51" s="32"/>
       <c r="I51" s="27">
@@ -21504,18 +21453,18 @@
       </c>
     </row>
     <row r="52" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="9">
         <f>INT((B52-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G52" s="9">
         <f>INT((C52-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="27">
@@ -21924,18 +21873,18 @@
       </c>
     </row>
     <row r="53" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
       <c r="F53" s="9">
         <f>INT((D52-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G53" s="9">
         <f>INT((E52-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="27">
@@ -22344,18 +22293,18 @@
       </c>
     </row>
     <row r="54" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="9">
         <f>INT((B54-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G54" s="9">
         <f>INT((C54-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="27">
@@ -22764,18 +22713,18 @@
       </c>
     </row>
     <row r="55" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="9">
         <f>INT((D54-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G55" s="9">
         <f>INT((E54-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="27">
@@ -23184,18 +23133,18 @@
       </c>
     </row>
     <row r="56" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="9">
         <f>INT((B56-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G56" s="9">
         <f>INT((C56-$B$2+1)/$CH$2*100)</f>
-        <v>-83614</v>
+        <v>-65148</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="27">
@@ -23604,18 +23553,18 @@
       </c>
     </row>
     <row r="57" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A57" s="92"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
       <c r="F57" s="15">
         <f>INT((D56-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="G57" s="15">
         <f>INT((E56-$B$2)/$CH$2*100)</f>
-        <v>-83616</v>
+        <v>-65149</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="27">
@@ -24121,31 +24070,31 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
